--- a/Analyses/NF-Basic-Info-Table.xlsx
+++ b/Analyses/NF-Basic-Info-Table.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28331"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6860" yWindow="0" windowWidth="18740" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="8140" yWindow="0" windowWidth="17520" windowHeight="12560" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="NF-2016-2017" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -271,15 +271,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
@@ -295,6 +286,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="38">
@@ -666,7 +666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -700,220 +700,220 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="3">
         <v>4.9896000000000003</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="4">
         <v>24.587299999999999</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="4">
         <v>11.8256</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="4">
         <v>6.6821000000000002</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="4">
         <v>6.6615000000000002</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="5">
         <v>6.6372999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="6">
         <v>2</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="7">
         <v>28</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="7">
         <v>12</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="7">
         <v>7</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="7">
         <v>6</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="8">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="3">
         <v>92.010400000000004</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="4">
         <v>70.412700000000001</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="4">
         <v>86.174400000000006</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="4">
         <v>91.317899999999995</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="4">
         <v>91.338499999999996</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="5">
         <v>90.362700000000004</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16" thickBot="1">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="9">
         <v>95</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="10">
         <v>67</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="10">
         <v>86</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="10">
         <v>91</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="10">
         <v>92</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="11">
         <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16" thickBot="1">
-      <c r="A7" s="16"/>
+      <c r="A7" s="13"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="16"/>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="3">
         <v>5.0205000000000002</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="4">
         <v>23.026700000000002</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="4">
         <v>13.4422</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="4">
         <v>7.1414</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="4">
         <v>7.2205000000000004</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="5">
         <v>7.1047000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="6">
         <v>7</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="7">
         <v>27</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="7">
         <v>5</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="7">
         <v>6</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="7">
         <v>6</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="8">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="3">
         <v>92.979500000000002</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="4">
         <v>70.973299999999995</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="4">
         <v>86.5578</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="4">
         <v>88.858599999999996</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="4">
         <v>90.779499999999999</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="5">
         <v>88.895300000000006</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16" thickBot="1">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="9">
         <v>91</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="10">
         <v>67</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="10">
         <v>95</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="10">
         <v>90</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="10">
         <v>92</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="11">
         <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -936,7 +936,7 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B16">
@@ -959,7 +959,7 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B17">
